--- a/biology/Microbiologie/Xanthomonas_arboricola/Xanthomonas_arboricola.xlsx
+++ b/biology/Microbiologie/Xanthomonas_arboricola/Xanthomonas_arboricola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthomonas arboricola est une espèce de protéobactéries de la famille des Xanthomonadaceae.
 Cette espèce de bactéries phytopathogènes regroupe plusieurs pathovars  responsables de diverses maladies bactériennes des plantes, en particulier chez les arbres, comme la maladie des taches bactériennes du pêcher, le chancre bactérien du peuplier ou la maladie des taches noires du noyer.
@@ -512,9 +524,11 @@
           <t>Liste des pathovars</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (13 octobre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (13 octobre 2014) :
 non-classé Xanthomonas arboricola 3004
 non-classé Xanthomonas arboricola pv. celebensis
 non-classé Xanthomonas arboricola pv. corylina
